--- a/extracted_excel/Migori_gendered_enterprise.xlsx
+++ b/extracted_excel/Migori_gendered_enterprise.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="69">
   <si>
     <t>Theme</t>
   </si>
@@ -28,9 +25,6 @@
     <t>Response</t>
   </si>
   <si>
-    <t>Migori</t>
-  </si>
-  <si>
     <t>Enterprise Selection and Community Involvement</t>
   </si>
   <si>
@@ -142,7 +136,7 @@
     <t>What kinds of support (financial, technical, policy) would make it easier for women and marginalized groups to thrive?</t>
   </si>
   <si>
-    <t>No response provided</t>
+    <t>How:  Enterprise Criteria Dairy farming Food security, demand, land and fodder(availability), Suitable breed, income, culture (dowry), climatic conditions, County Government support Sugarcane Food security, cash crop, suitable climatic conditions ,proximity to sugar factories ,suitable and available land ,market demand of the product Maize&amp; beans Staple food, subsidized farm inputs, availability of land, suitable varieties and climatic conditions, high market demand, source of income Sweet Potato Staple food, subsidized farm inputs, availability of land, suitable varieties and climatic conditions, high market demand, source of income, proximity to sweet potato processing plant, suitable vitamin A variety Horticulture Improved varieties, early maturing, suitable soils and climatic conditions, available market, source of income ,food security Aquaculture Source of income, available market, early maturing, Sorghum &amp; finger millet Culture, food and nutrition security ,drought resilient , Poultry (Chicken) Market availability ,certified sources(compliant firms e.g Kenchick ,Mzima chicken) ,feed availability ,pest and disease control, culture</t>
   </si>
   <si>
     <t>Group Enterprise Involvement Women Poultry, maize and beans, sorghum and finger millet Active participation in building of the value chain, managerial aspects , Men Dairy, sugarcane, sweet potatoes, aquaculture Active participation in building of the value chain, managerial aspects ,Selling of products Youth Aquaculture, poultry, sweet potato Active participation in building of the value chain, managerial aspects , Elderly Maize and beans, poultry sorghum and finger millet Active participation in building of the value chain, managerial aspects ,</t>
@@ -199,7 +193,7 @@
     <t>Increased profit Increased Household income Economic empowerment of women Increased food and nutrition security. Social dignity/respect Decision making improved</t>
   </si>
   <si>
-    <t>Trainings</t>
+    <t>Trainings Access to credits Conducive policies environment Favorable climatic conditions/similarly of climatic conditions Political goodwill Collaboration/partnership with the stakeholders</t>
   </si>
   <si>
     <t>Yes, Under the above conditions.</t>
@@ -211,6 +205,9 @@
     <t>Monthly reports from the stakeholders and government agencies Financial institutions Women based groups</t>
   </si>
   <si>
+    <t>Affirmative action plan: involvement of women in agricultural enterprises Gender mainstreaming policy</t>
+  </si>
+  <si>
     <t>Kenya Women Trust Fund Women Saccos.</t>
   </si>
   <si>
@@ -220,7 +217,10 @@
     <t>Implementation of the existing policies. Formulate more policy intervention at the County level.</t>
   </si>
   <si>
-    <t>Training on AAAA Financial support Infrastructure development. Relief on some taxes for example farm levies Access to extension services Land reforms on ownership rights</t>
+    <t>Enabling: Affirmative action plan: involvement of women in agricultural enterprises Gender mainstreaming policy</t>
+  </si>
+  <si>
+    <t>Training on AAAA Financial support Infrastructure development. Relief on some taxes for example farm levies Access to extension services Land reforms on ownership rights Gender policies in Agriculture.</t>
   </si>
 </sst>
 </file>
@@ -578,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,413 +594,323 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="D28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s">
         <v>68</v>
       </c>
     </row>
